--- a/exposan/bwaise/comparison/formatting_only.xlsx
+++ b/exposan/bwaise/comparison/formatting_only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/es/exposan/bwaise/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_8F54906BC5329A06CD3090BCF0E17BADEA9AD876" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E209F2F6-F5EB-CF4F-AF15-F600420F2C46}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_8F54906BC5329A06CD3090BCF0E17BADEA9AD876" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27B08E7D-ADB7-DD4F-915D-60C8A3FF79E5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18180" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G54" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46:N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1524,13 +1524,18 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J48" s="1" t="s">

--- a/exposan/bwaise/comparison/formatting_only.xlsx
+++ b/exposan/bwaise/comparison/formatting_only.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/es/exposan/bwaise/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_8F54906BC5329A06CD3090BCF0E17BADEA9AD876" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27B08E7D-ADB7-DD4F-915D-60C8A3FF79E5}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_8F54906BC5329A06CD3090BCF0E17BADEA9AD876" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF33189A-88A6-EF4C-A36C-9D2B5EBFA5AD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18180" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24300" yWindow="10780" windowWidth="25900" windowHeight="16520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="1" r:id="rId1"/>
+    <sheet name="baseline" sheetId="1" r:id="rId1"/>
+    <sheet name="uncertainty" sheetId="2" r:id="rId2"/>
+    <sheet name="Percentiles" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="120">
   <si>
     <t>Single user inputs</t>
   </si>
@@ -349,14 +351,57 @@
   </si>
   <si>
     <t>Income (% of total cost)</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>COD recovery</t>
+  </si>
+  <si>
+    <t>N recovery</t>
+  </si>
+  <si>
+    <t>P recovery</t>
+  </si>
+  <si>
+    <t>K recovery</t>
+  </si>
+  <si>
+    <t>TEA results</t>
+  </si>
+  <si>
+    <t>LCA results</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Total energy</t>
+  </si>
+  <si>
+    <t>Total N</t>
+  </si>
+  <si>
+    <t>Total P</t>
+  </si>
+  <si>
+    <t>Total K</t>
+  </si>
+  <si>
+    <t>Cost [USD/cap/yr]</t>
+  </si>
+  <si>
+    <t>GWP [kg CO2-eq/cap/yr]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -421,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -516,13 +561,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -541,13 +636,23 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -890,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46:N46"/>
+    <sheetView topLeftCell="G29" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1685,7 @@
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="13"/>
-      <c r="L51" s="15"/>
+      <c r="L51" s="14"/>
       <c r="M51" s="13"/>
       <c r="N51" s="12"/>
     </row>
@@ -1590,7 +1695,7 @@
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="13"/>
-      <c r="L52" s="16"/>
+      <c r="L52" s="15"/>
       <c r="M52" s="13"/>
       <c r="N52" s="12"/>
     </row>
@@ -1600,7 +1705,7 @@
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="13"/>
-      <c r="L53" s="17"/>
+      <c r="L53" s="16"/>
       <c r="M53" s="13"/>
       <c r="N53" s="12"/>
     </row>
@@ -1630,7 +1735,7 @@
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="10"/>
-      <c r="L56" s="19"/>
+      <c r="L56" s="17"/>
       <c r="M56" s="10"/>
       <c r="N56" s="12"/>
     </row>
@@ -1653,7 +1758,7 @@
       </c>
       <c r="J59" s="12"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="15"/>
+      <c r="L59" s="14"/>
       <c r="M59" s="10"/>
       <c r="N59" s="12"/>
     </row>
@@ -1661,21 +1766,21 @@
       <c r="I60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="4"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="24"/>
     </row>
     <row r="61" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I61" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J61" s="4"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="4"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="24"/>
     </row>
     <row r="62" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I62" s="1"/>
@@ -1761,4 +1866,1027 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B08A7E-525F-FD42-964F-035E12092760}">
+  <dimension ref="A1:N70"/>
+  <sheetViews>
+    <sheetView topLeftCell="G29" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60:N61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+    </row>
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" s="12"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J40" s="12"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+    </row>
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+    </row>
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="9:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" spans="9:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="I51" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J51" s="14"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="14"/>
+    </row>
+    <row r="52" spans="9:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="I52" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" s="15"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="15"/>
+    </row>
+    <row r="53" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J53" s="16"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="16"/>
+    </row>
+    <row r="54" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+    </row>
+    <row r="55" spans="9:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+    </row>
+    <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="17"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="17"/>
+    </row>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+    </row>
+    <row r="58" spans="9:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="9:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="I59" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="14"/>
+    </row>
+    <row r="60" spans="9:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="I60" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J60" s="21"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="21"/>
+    </row>
+    <row r="61" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J61" s="23"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="23"/>
+    </row>
+    <row r="62" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+    </row>
+    <row r="64" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+    </row>
+    <row r="65" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+    </row>
+    <row r="66" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+    </row>
+    <row r="67" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I67" s="1"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+    </row>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+    </row>
+    <row r="69" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+    </row>
+    <row r="70" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3792EC-97B2-0B4E-A782-AA849AEEC073}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exposan/bwaise/comparison/formatting_only.xlsx
+++ b/exposan/bwaise/comparison/formatting_only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/es/exposan/bwaise/comparison/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yalinli_cabbi/Library/CloudStorage/OneDrive-Personal/Coding/es/exposan/bwaise/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_8F54906BC5329A06CD3090BCF0E17BADEA9AD876" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF33189A-88A6-EF4C-A36C-9D2B5EBFA5AD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D09507-C0AA-174F-A056-BF6D25B49956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24300" yWindow="10780" windowWidth="25900" windowHeight="16520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20620" yWindow="5500" windowWidth="25900" windowHeight="16520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -2750,7 +2750,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
